--- a/Lab 1/results c1.xlsx
+++ b/Lab 1/results c1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\SC2001\Lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4193EF9-B8A0-4CAF-A0B5-227DABA0B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20AD9EE-1864-409B-9599-ED393C29E472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1905" windowWidth="21600" windowHeight="11175" xr2:uid="{02AF093D-430D-4EDD-A67F-1F762EB91082}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02AF093D-430D-4EDD-A67F-1F762EB91082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,22 +431,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5C2263-458A-4FD3-BAEA-0F318D250116}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -487,7 +487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -514,23 +514,23 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <f xml:space="preserve"> A2*H2 + A2*M2</f>
+        <f t="shared" ref="J2:J19" si="0" xml:space="preserve"> A2*H2 + A2*M2</f>
         <v>16643.856189774724</v>
       </c>
       <c r="K2">
-        <f>A2 + A2*M2</f>
+        <f t="shared" ref="K2:K19" si="1">A2 + A2*M2</f>
         <v>7643.856189774725</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L19" si="0">AVERAGE(J2:K2)</f>
+        <f t="shared" ref="L2:L19" si="2">AVERAGE(J2:K2)</f>
         <v>12143.856189774724</v>
       </c>
       <c r="M2">
-        <f>LOG(A2/H2, 2)</f>
+        <f t="shared" ref="M2:M19" si="3">LOG(A2/H2, 2)</f>
         <v>6.6438561897747253</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -550,7 +550,7 @@
         <v>20140</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G19" si="1">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G19" si="4">AVERAGE(B3:F3)</f>
         <v>20220.599999999999</v>
       </c>
       <c r="H3">
@@ -561,19 +561,19 @@
         <v>35287.712379549448</v>
       </c>
       <c r="K3">
-        <f>A3 + A3*M3</f>
+        <f t="shared" si="1"/>
         <v>17287.712379549448</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26287.712379549448</v>
       </c>
       <c r="M3">
-        <f>LOG(A3/H3, 2)</f>
+        <f t="shared" si="3"/>
         <v>7.6438561897747244</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -593,30 +593,30 @@
         <v>44338</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44443.4</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="J4">
-        <f xml:space="preserve"> A4*H4 + A4*M4</f>
+        <f t="shared" si="0"/>
         <v>74575.424759098911</v>
       </c>
       <c r="K4">
-        <f>A4 + A4*M4</f>
+        <f t="shared" si="1"/>
         <v>38575.424759098903</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56575.424759098911</v>
       </c>
       <c r="M4">
-        <f>LOG(A4/H4, 2)</f>
+        <f t="shared" si="3"/>
         <v>8.6438561897747253</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -636,30 +636,30 @@
         <v>96889</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>96964.2</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="J5">
-        <f xml:space="preserve"> A5*H5 + A5*M5</f>
+        <f t="shared" si="0"/>
         <v>157150.84951819782</v>
       </c>
       <c r="K5">
-        <f>A5 + A5*M5</f>
+        <f t="shared" si="1"/>
         <v>85150.849518197807</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121150.84951819782</v>
       </c>
       <c r="M5">
-        <f>LOG(A5/H5, 2)</f>
+        <f t="shared" si="3"/>
         <v>9.6438561897747253</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -679,30 +679,30 @@
         <v>127227</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127126.6</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="J6">
-        <f xml:space="preserve"> A6*H6 + A6*M6</f>
+        <f t="shared" si="0"/>
         <v>199657.84284662089</v>
       </c>
       <c r="K6">
-        <f>A6 + A6*M6</f>
+        <f t="shared" si="1"/>
         <v>109657.84284662087</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>154657.84284662089</v>
       </c>
       <c r="M6">
-        <f>LOG(A6/H6, 2)</f>
+        <f t="shared" si="3"/>
         <v>9.965784284662087</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>16000</v>
       </c>
@@ -722,30 +722,30 @@
         <v>210101</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>209992.4</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="J7">
-        <f xml:space="preserve"> A7*H7 + A7*M7</f>
+        <f t="shared" si="0"/>
         <v>330301.69903639564</v>
       </c>
       <c r="K7">
-        <f>A7 + A7*M7</f>
+        <f t="shared" si="1"/>
         <v>186301.69903639561</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>258301.69903639564</v>
       </c>
       <c r="M7">
-        <f>LOG(A7/H7, 2)</f>
+        <f t="shared" si="3"/>
         <v>10.643856189774725</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>32000</v>
       </c>
@@ -765,30 +765,30 @@
         <v>452164</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>452018.8</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="J8">
-        <f xml:space="preserve"> A8*H8 + A8*M8</f>
+        <f t="shared" si="0"/>
         <v>692603.39807279129</v>
       </c>
       <c r="K8">
-        <f>A8 + A8*M8</f>
+        <f t="shared" si="1"/>
         <v>404603.39807279129</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>548603.39807279129</v>
       </c>
       <c r="M8">
-        <f>LOG(A8/H8, 2)</f>
+        <f t="shared" si="3"/>
         <v>11.643856189774727</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>64000</v>
       </c>
@@ -808,30 +808,30 @@
         <v>968068</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>967917.4</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="J9">
-        <f xml:space="preserve"> A9*H9 + A9*M9</f>
+        <f t="shared" si="0"/>
         <v>1449206.7961455823</v>
       </c>
       <c r="K9">
-        <f>A9 + A9*M9</f>
+        <f t="shared" si="1"/>
         <v>873206.79614558234</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1161206.7961455823</v>
       </c>
       <c r="M9">
-        <f>LOG(A9/H9, 2)</f>
+        <f t="shared" si="3"/>
         <v>12.643856189774723</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100000</v>
       </c>
@@ -851,30 +851,30 @@
         <v>1557450</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1557597</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="J10">
-        <f xml:space="preserve"> A10*H10 + A10*M10</f>
+        <f t="shared" si="0"/>
         <v>2328771.2379549453</v>
       </c>
       <c r="K10">
-        <f>A10 + A10*M10</f>
+        <f t="shared" si="1"/>
         <v>1428771.2379549451</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1878771.2379549453</v>
       </c>
       <c r="M10">
-        <f>LOG(A10/H10, 2)</f>
+        <f t="shared" si="3"/>
         <v>13.287712379549451</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>128000</v>
       </c>
@@ -894,30 +894,30 @@
         <v>2063927</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2063708</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="J11">
-        <f xml:space="preserve"> A11*H11 + A11*M11</f>
+        <f t="shared" si="0"/>
         <v>3026413.5922911647</v>
       </c>
       <c r="K11">
-        <f>A11 + A11*M11</f>
+        <f t="shared" si="1"/>
         <v>1874413.5922911647</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2450413.5922911647</v>
       </c>
       <c r="M11">
-        <f>LOG(A11/H11, 2)</f>
+        <f t="shared" si="3"/>
         <v>13.643856189774723</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>256000</v>
       </c>
@@ -937,30 +937,30 @@
         <v>4384059</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4383394.2</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="J12">
-        <f xml:space="preserve"> A12*H12 + A12*M12</f>
+        <f t="shared" si="0"/>
         <v>6308827.1845823294</v>
       </c>
       <c r="K12">
-        <f>A12 + A12*M12</f>
+        <f t="shared" si="1"/>
         <v>4004827.1845823294</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5156827.1845823294</v>
       </c>
       <c r="M12">
-        <f>LOG(A12/H12, 2)</f>
+        <f t="shared" si="3"/>
         <v>14.643856189774723</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>512000</v>
       </c>
@@ -980,30 +980,30 @@
         <v>9278917</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9278058.1999999993</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="J13">
-        <f xml:space="preserve"> A13*H13 + A13*M13</f>
+        <f t="shared" si="0"/>
         <v>13129654.369164661</v>
       </c>
       <c r="K13">
-        <f>A13 + A13*M13</f>
+        <f t="shared" si="1"/>
         <v>8521654.3691646606</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10825654.369164661</v>
       </c>
       <c r="M13">
-        <f>LOG(A13/H13, 2)</f>
+        <f t="shared" si="3"/>
         <v>15.643856189774725</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1000000</v>
       </c>
@@ -1023,30 +1023,30 @@
         <v>19064246</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19065841.800000001</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="J14">
-        <f xml:space="preserve"> A14*H14 + A14*M14</f>
+        <f t="shared" si="0"/>
         <v>26609640.474436812</v>
       </c>
       <c r="K14">
-        <f>A14 + A14*M14</f>
+        <f t="shared" si="1"/>
         <v>17609640.474436812</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22109640.474436812</v>
       </c>
       <c r="M14">
-        <f>LOG(A14/H14, 2)</f>
+        <f t="shared" si="3"/>
         <v>16.609640474436812</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1024000</v>
       </c>
@@ -1066,30 +1066,30 @@
         <v>19579240</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19579536.199999999</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="J15">
-        <f xml:space="preserve"> A15*H15 + A15*M15</f>
+        <f t="shared" si="0"/>
         <v>27283308.738329317</v>
       </c>
       <c r="K15">
-        <f>A15 + A15*M15</f>
+        <f t="shared" si="1"/>
         <v>18067308.738329317</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22675308.738329317</v>
       </c>
       <c r="M15">
-        <f>LOG(A15/H15, 2)</f>
+        <f t="shared" si="3"/>
         <v>16.643856189774723</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2048000</v>
       </c>
@@ -1109,30 +1109,30 @@
         <v>41204477</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>41206838.600000001</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="J16">
-        <f xml:space="preserve"> A16*H16 + A16*M16</f>
+        <f t="shared" si="0"/>
         <v>56614617.476658635</v>
       </c>
       <c r="K16">
-        <f>A16 + A16*M16</f>
+        <f t="shared" si="1"/>
         <v>38182617.476658635</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47398617.476658635</v>
       </c>
       <c r="M16">
-        <f>LOG(A16/H16, 2)</f>
+        <f t="shared" si="3"/>
         <v>17.643856189774723</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4096000</v>
       </c>
@@ -1152,30 +1152,30 @@
         <v>86508937</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86509110.200000003</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="J17">
-        <f xml:space="preserve"> A17*H17 + A17*M17</f>
+        <f t="shared" si="0"/>
         <v>117325234.95331727</v>
       </c>
       <c r="K17">
-        <f>A17 + A17*M17</f>
+        <f t="shared" si="1"/>
         <v>80461234.95331727</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>98893234.95331727</v>
       </c>
       <c r="M17">
-        <f>LOG(A17/H17, 2)</f>
+        <f t="shared" si="3"/>
         <v>18.643856189774723</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8192000</v>
       </c>
@@ -1195,30 +1195,30 @@
         <v>181208884</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>181208027.59999999</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="J18">
-        <f xml:space="preserve"> A18*H18 + A18*M18</f>
+        <f t="shared" si="0"/>
         <v>242842469.90663454</v>
       </c>
       <c r="K18">
-        <f>A18 + A18*M18</f>
+        <f t="shared" si="1"/>
         <v>169114469.90663454</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205978469.90663454</v>
       </c>
       <c r="M18">
-        <f>LOG(A18/H18, 2)</f>
+        <f t="shared" si="3"/>
         <v>19.643856189774723</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10000000</v>
       </c>
@@ -1238,26 +1238,26 @@
         <v>226354841</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>226347241.19999999</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="J19">
-        <f xml:space="preserve"> A19*H19 + A19*M19</f>
+        <f t="shared" si="0"/>
         <v>299315685.69324172</v>
       </c>
       <c r="K19">
-        <f>A19 + A19*M19</f>
+        <f t="shared" si="1"/>
         <v>209315685.69324175</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>254315685.69324172</v>
       </c>
       <c r="M19">
-        <f>LOG(A19/H19, 2)</f>
+        <f t="shared" si="3"/>
         <v>19.931568569324174</v>
       </c>
     </row>
